--- a/out/results_2024-10-09.xlsx
+++ b/out/results_2024-10-09.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,25 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,14 +442,14 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F1" t="n">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="G1" t="n">
-        <v>2760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -496,19 +477,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>1533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8-4-[2]-7</t>
+          <t>6-3-[2]-5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,23 +504,23 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>672</v>
+        <v>86</v>
       </c>
       <c r="G3" t="n">
-        <v>14672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8-4-[2, 3]-4</t>
+          <t>7-3-[2, 3]-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,23 +535,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>512</v>
+        <v>59</v>
       </c>
       <c r="G4" t="n">
-        <v>5696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8-3-[2, 3]-4</t>
+          <t>6-3-[2]-5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,19 +570,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>384</v>
+        <v>225</v>
       </c>
       <c r="G5" t="n">
-        <v>3496</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9-3-[3]-4</t>
+          <t>7-3-[2, 3]-3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,24 +601,24 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>432</v>
+        <v>174</v>
       </c>
       <c r="G6" t="n">
-        <v>5040</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9-4-[2, 3]-4</t>
+          <t>6-3-[2]-5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -651,24 +632,24 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>576</v>
+        <v>225</v>
       </c>
       <c r="G7" t="n">
-        <v>6372</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9-3-[2, 3]-4</t>
+          <t>7-3-[2, 3]-3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -682,24 +663,24 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>432</v>
+        <v>174</v>
       </c>
       <c r="G8" t="n">
-        <v>5040</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>8-4-[2]-7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,28 +690,28 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>270</v>
+        <v>588</v>
       </c>
       <c r="G9" t="n">
-        <v>2760</v>
+        <v>11172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7-3-[2, 3]-3</t>
+          <t>8-4-[2, 3]-4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -740,28 +721,28 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="G10" t="n">
-        <v>1404</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8-4-[2]-7</t>
+          <t>8-3-[2, 3]-4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -775,24 +756,24 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>672</v>
+        <v>292</v>
       </c>
       <c r="G11" t="n">
-        <v>14672</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8-4-[2, 3]-4</t>
+          <t>9-3-[3]-4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -802,59 +783,59 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>512</v>
+        <v>360</v>
       </c>
       <c r="G12" t="n">
-        <v>5696</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8-3-[2, 3]-4</t>
+          <t>9-4-[2, 3]-4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="G13" t="n">
-        <v>3008</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9-3-[3]-4</t>
+          <t>9-3-[2, 3]-4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -868,29 +849,29 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>432</v>
+        <v>360</v>
       </c>
       <c r="G14" t="n">
-        <v>5040</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9-4-[2, 3]-4</t>
+          <t>10-4-[2, 3]-9</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.344</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -899,29 +880,29 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>576</v>
+        <v>1098</v>
       </c>
       <c r="G15" t="n">
-        <v>6116</v>
+        <v>29360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9-3-[2, 3]-4</t>
+          <t>10-5-[2, 3]-9</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -930,55 +911,55 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>432</v>
+        <v>1215</v>
       </c>
       <c r="G16" t="n">
-        <v>3948</v>
+        <v>44395</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10-4-[2, 3]-9</t>
+          <t>10-4-[2, 3]-4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.281</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1440</v>
+        <v>488</v>
       </c>
       <c r="G17" t="n">
-        <v>32922</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10-5-[2, 3]-9</t>
+          <t>10-5-[2, 3]-4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -988,59 +969,59 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1800</v>
+        <v>540</v>
       </c>
       <c r="G18" t="n">
-        <v>55530</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10-4-[2, 3]-4</t>
+          <t>11-4-[2, 3]-4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.969</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>640</v>
+        <v>576</v>
       </c>
       <c r="G19" t="n">
-        <v>7432</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10-5-[2, 3]-4</t>
+          <t>11-5-[2, 3]-4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1050,33 +1031,33 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>800</v>
+        <v>632</v>
       </c>
       <c r="G20" t="n">
-        <v>13430</v>
+        <v>10233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11-4-[2, 3]-4</t>
+          <t>11-4-[2, 3]-5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.141</t>
+          <t>1.438</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1085,91 +1066,91 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="G21" t="n">
-        <v>9404</v>
+        <v>11058</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11-5-[2, 3]-4</t>
+          <t>11-5-[2, 3]-5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>104.031</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="G22" t="n">
-        <v>13878</v>
+        <v>16259</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11-4-[2, 3]-5</t>
+          <t>13-4-[3, 4]-4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.797</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>880</v>
+        <v>772</v>
       </c>
       <c r="G23" t="n">
-        <v>13955</v>
+        <v>9961</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>14-4-[3, 4]-4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1178,60 +1159,60 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>270</v>
+        <v>880</v>
       </c>
       <c r="G24" t="n">
-        <v>2760</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8-4-[2]-7</t>
+          <t>15-5-[3]-7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>672</v>
+        <v>1890</v>
       </c>
       <c r="G25" t="n">
-        <v>14672</v>
+        <v>61470</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8-4-[2, 3]-4</t>
+          <t>15-4-[3, 4]-5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1240,24 +1221,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>512</v>
+        <v>1245</v>
       </c>
       <c r="G26" t="n">
-        <v>5696</v>
+        <v>20910</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>15-5-[3, 4]-5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1271,24 +1252,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>108</v>
+        <v>1350</v>
       </c>
       <c r="G27" t="n">
-        <v>627</v>
+        <v>30735</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5-3-2</t>
+          <t>16-4-[4]-5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1302,24 +1283,24 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="G28" t="n">
-        <v>9585</v>
+        <v>23868</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>16-5-[3, 4]-5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1333,24 +1314,24 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>576</v>
+        <v>1510</v>
       </c>
       <c r="G29" t="n">
-        <v>8568</v>
+        <v>35059</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>16-4-[3, 4]-5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1364,29 +1345,29 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1960</v>
+        <v>1400</v>
       </c>
       <c r="G30" t="n">
-        <v>62930</v>
+        <v>23868</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9-5-2</t>
+          <t>17-5-[3, 4]-5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1395,60 +1376,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4860</v>
+        <v>1680</v>
       </c>
       <c r="G31" t="n">
-        <v>263430</v>
+        <v>39673</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>18-6-[3]-8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>binomial</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>60</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2000</v>
+        <v>3168</v>
       </c>
       <c r="G32" t="n">
-        <v>61060</v>
+        <v>165312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11-6-2</t>
+          <t>18-6-[3, 4]-5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1457,29 +1436,29 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10164</v>
+        <v>1980</v>
       </c>
       <c r="G33" t="n">
-        <v>836253</v>
+        <v>61902</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7-6-3</t>
+          <t>18-5-[3, 4]-5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1488,29 +1467,29 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6174</v>
+        <v>1860</v>
       </c>
       <c r="G34" t="n">
-        <v>349965</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13-7-2</t>
+          <t>19-6-[3, 4]-5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.531</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1519,29 +1498,29 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>18928</v>
+        <v>2175</v>
       </c>
       <c r="G35" t="n">
-        <v>2201927</v>
+        <v>69096</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>19-5-[3, 4]-5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1550,24 +1529,24 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>108</v>
+        <v>2050</v>
       </c>
       <c r="G36" t="n">
-        <v>627</v>
+        <v>49771</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5-3-2</t>
+          <t>19-6-[3, 4]-6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1581,55 +1560,53 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>600</v>
+        <v>2610</v>
       </c>
       <c r="G37" t="n">
-        <v>9585</v>
+        <v>101444</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4-3-3</t>
+          <t>19-5-[3, 4]-6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>binomial</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>60</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>576</v>
+        <v>2460</v>
       </c>
       <c r="G38" t="n">
-        <v>8568</v>
+        <v>72592</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7-4-2</t>
+          <t>20-5-[4]-5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1643,60 +1620,58 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1960</v>
+        <v>2250</v>
       </c>
       <c r="G39" t="n">
-        <v>62930</v>
+        <v>55255</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9-5-2</t>
+          <t>21-7-[3]-10</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>binomial</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>60</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4860</v>
+        <v>5460</v>
       </c>
       <c r="G40" t="n">
-        <v>263430</v>
+        <v>482958</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>21-5-[4, 5]-5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1705,210 +1680,200 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>2455</v>
       </c>
       <c r="G41" t="n">
-        <v>61060</v>
+        <v>61009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11-6-2</t>
+          <t>22-5-[4, 5]-5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>binomial</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.266</t>
+          <t>2.047</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10164</v>
+        <v>2670</v>
       </c>
       <c r="G42" t="n">
-        <v>836253</v>
+        <v>67053</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7-6-3</t>
+          <t>23-5-[4, 5]-5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>binomial</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.203</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>60</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6174</v>
+        <v>2895</v>
       </c>
       <c r="G43" t="n">
-        <v>349965</v>
+        <v>73387</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>13-7-2</t>
+          <t>24-8-[3]-11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>binomial</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.484</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>60</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>18928</v>
+        <v>7920</v>
       </c>
       <c r="G44" t="n">
-        <v>2201927</v>
+        <v>1001448</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>24-6-[4]-7</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>60</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>270</v>
+        <v>4620</v>
       </c>
       <c r="G45" t="n">
-        <v>2760</v>
+        <v>225198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>24-6-[4, 5]-6</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>60</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>270</v>
+        <v>3960</v>
       </c>
       <c r="G46" t="n">
-        <v>2760</v>
+        <v>163164</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>24-5-[4, 5]-6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>60</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>270</v>
+        <v>3756</v>
       </c>
       <c r="G47" t="n">
-        <v>2760</v>
+        <v>116766</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>25-5-[5]-6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1918,28 +1883,28 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>270</v>
+        <v>4050</v>
       </c>
       <c r="G48" t="n">
-        <v>2760</v>
+        <v>126865</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7-3-[2, 3]-3</t>
+          <t>25-6-[4, 5]-5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1953,24 +1918,24 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>252</v>
+        <v>3550</v>
       </c>
       <c r="G49" t="n">
-        <v>1533</v>
+        <v>120640</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8-4-[2]-7</t>
+          <t>25-5-[4, 5]-5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1980,95 +1945,93 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>672</v>
+        <v>3375</v>
       </c>
       <c r="G50" t="n">
-        <v>14672</v>
+        <v>86925</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8-4-[2, 3]-4</t>
+          <t>26-6-[4, 5]-5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>512</v>
+        <v>3810</v>
       </c>
       <c r="G51" t="n">
-        <v>5696</v>
+        <v>130614</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8-3-[2, 3]-4</t>
+          <t>27-9-[3]-13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>60</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>384</v>
+        <v>11934</v>
       </c>
       <c r="G52" t="n">
-        <v>3496</v>
+        <v>2264355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9-3-[3]-4</t>
+          <t>27-6-[4, 5]-5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.094</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2077,463 +2040,441 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>432</v>
+        <v>4080</v>
       </c>
       <c r="G53" t="n">
-        <v>5040</v>
+        <v>140988</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9-4-[2, 3]-4</t>
+          <t>28-7-[4]-9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>60</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>576</v>
+        <v>8190</v>
       </c>
       <c r="G54" t="n">
-        <v>6372</v>
+        <v>697109</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9-3-[2, 3]-4</t>
+          <t>28-6-[4, 5]-6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>60</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>432</v>
+        <v>5232</v>
       </c>
       <c r="G55" t="n">
-        <v>5040</v>
+        <v>223028</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6-3-[2]-4</t>
+          <t>28-7-[4, 5]-6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>216</v>
+        <v>5460</v>
       </c>
       <c r="G56" t="n">
-        <v>1938</v>
+        <v>297836</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6-3-[2]-1</t>
+          <t>29-7-[4, 5]-6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>54</v>
+        <v>5814</v>
       </c>
       <c r="G57" t="n">
-        <v>282</v>
+        <v>319762</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>29-6-[4, 5]-6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>60</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>186</v>
+        <v>5580</v>
       </c>
       <c r="G58" t="n">
-        <v>660</v>
+        <v>239464</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>29-7-[4, 5]-7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>60</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>186</v>
+        <v>6783</v>
       </c>
       <c r="G59" t="n">
-        <v>690</v>
+        <v>442791</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>29-6-[4, 5]-7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>60</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>186</v>
+        <v>6510</v>
       </c>
       <c r="G60" t="n">
-        <v>1140</v>
+        <v>330608</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>30-10-[3]-14</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>60</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>270</v>
+        <v>15960</v>
       </c>
       <c r="G61" t="n">
-        <v>1410</v>
+        <v>4023060</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>30-6-[5]-6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>60</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>270</v>
+        <v>5940</v>
       </c>
       <c r="G62" t="n">
-        <v>2760</v>
+        <v>256488</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>30-6-[4, 5]-7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>60</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>270</v>
+        <v>6930</v>
       </c>
       <c r="G63" t="n">
-        <v>1410</v>
+        <v>354126</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>30-7-[4, 5]-7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>60</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>270</v>
+        <v>7210</v>
       </c>
       <c r="G64" t="n">
-        <v>1350</v>
+        <v>474262</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>31-7-[4, 5]-7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>60</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>270</v>
+        <v>7651</v>
       </c>
       <c r="G65" t="n">
-        <v>1380</v>
+        <v>506818</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>31-6-[5, 6]-3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>270</v>
+        <v>3153</v>
       </c>
       <c r="G66" t="n">
-        <v>2760</v>
+        <v>61460</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>32-8-[4]-10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>60</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>270</v>
+        <v>12000</v>
       </c>
       <c r="G67" t="n">
-        <v>1410</v>
+        <v>1474192</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>32-8-[4, 5]-7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>sga</t>
+          <t>sga_nsc</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.422</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2542,72 +2483,1490 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>270</v>
+        <v>8400</v>
       </c>
       <c r="G68" t="n">
-        <v>1410</v>
+        <v>698344</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6-3-[2]-5</t>
+          <t>32-7-[4, 5]-7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>60</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>timeout</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>270</v>
+        <v>8106</v>
       </c>
       <c r="G69" t="n">
-        <v>2760</v>
+        <v>540459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>64</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>32-6-[5, 6]-3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>3342</v>
+      </c>
+      <c r="G70" t="n">
+        <v>65518</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>33-11-[3]-16</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>60</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>22176</v>
+      </c>
+      <c r="G71" t="n">
+        <v>7759224</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>66</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>33-8-[4, 5]-7</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.078</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>8876</v>
+      </c>
+      <c r="G72" t="n">
+        <v>743192</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>67</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>33-7-[4, 5]-7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>60</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>8575</v>
+      </c>
+      <c r="G73" t="n">
+        <v>575185</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>68</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>33-8-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>60</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>10144</v>
+      </c>
+      <c r="G74" t="n">
+        <v>984667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>69</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>33-7-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>60</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>9800</v>
+      </c>
+      <c r="G75" t="n">
+        <v>760946</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>70</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>33-6-[5, 6]-3</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3537</v>
+      </c>
+      <c r="G76" t="n">
+        <v>69708</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>71</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>34-8-[4, 5]-7</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.703</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>9366</v>
+      </c>
+      <c r="G77" t="n">
+        <v>789440</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>72</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>34-7-[4, 5]-7</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>60</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>9058</v>
+      </c>
+      <c r="G78" t="n">
+        <v>610996</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>73</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>34-8-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>60</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>10704</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1045974</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>74</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>34-7-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>60</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>10352</v>
+      </c>
+      <c r="G80" t="n">
+        <v>808344</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>75</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>34-6-[5, 6]-3</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>3738</v>
+      </c>
+      <c r="G81" t="n">
+        <v>74030</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>76</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>35-7-[5]-7</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>60</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>9555</v>
+      </c>
+      <c r="G82" t="n">
+        <v>647892</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>77</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>35-8-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>60</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>11280</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1109137</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>78</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>35-7-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>60</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>10920</v>
+      </c>
+      <c r="G84" t="n">
+        <v>857178</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>79</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>35-6-[5, 6]-3</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>60</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>3945</v>
+      </c>
+      <c r="G85" t="n">
+        <v>78484</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>80</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>35-7-[5, 6]-3</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>4095</v>
+      </c>
+      <c r="G86" t="n">
+        <v>102298</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>81</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>36-12-[3]-17</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>60</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>28152</v>
+      </c>
+      <c r="G87" t="n">
+        <v>12459132</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>82</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>36-9-[4]-8</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.078</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>12240</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1476396</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>83</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>36-6-[6]-3</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>4158</v>
+      </c>
+      <c r="G89" t="n">
+        <v>83070</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>84</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>36-8-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>60</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>11872</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1174156</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>85</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>36-9-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.203</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>12240</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1476396</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>86</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>36-7-[5, 6]-7</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>60</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>10059</v>
+      </c>
+      <c r="G92" t="n">
+        <v>685845</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>87</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>36-6-[5, 6]-7</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>60</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>9702</v>
+      </c>
+      <c r="G93" t="n">
+        <v>512118</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>88</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>37-9-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.453</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>12856</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1560463</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>89</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>37-8-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>60</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>12480</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1241031</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>90</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>37-9-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>60</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>14463</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1998449</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>91</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>37-8-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>60</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>14040</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1588102</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>92</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>37-7-[5, 6]-7</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>60</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>10577</v>
+      </c>
+      <c r="G98" t="n">
+        <v>724883</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>93</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>38-8-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>60</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>13104</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1309762</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>94</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>38-9-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>14.234</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>13488</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1646862</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>95</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>38-8-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>60</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>14742</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1676084</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>96</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>38-9-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>60</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>15174</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2109139</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>97</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>38-7-[5, 6]-7</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>60</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>11109</v>
+      </c>
+      <c r="G103" t="n">
+        <v>765006</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>98</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>39-13-[3]-19</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>60</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>37050</v>
+      </c>
+      <c r="G104" t="n">
+        <v>21578544</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>99</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>39-8-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>60</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>13744</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1380349</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>100</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>39-9-[4, 5]-8</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>8.438</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>14136</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1735593</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>101</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>39-8-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>60</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>15462</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1766442</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>102</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>39-9-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>60</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>15903</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2222817</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>103</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>39-7-[5, 6]-7</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>60</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>11655</v>
+      </c>
+      <c r="G109" t="n">
+        <v>806214</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>104</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>40-10-[4]-10</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>60</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>19000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3586060</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>105</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>40-8-[5]-8</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>60</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>14400</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1452792</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>106</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>40-8-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>60</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>16200</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1859176</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>107</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>40-10-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.438</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>17100</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2876270</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>108</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>40-9-[4, 5]-9</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>60</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>16650</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2339483</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>109</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>40-7-[5, 6]-7</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>60</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>12215</v>
+      </c>
+      <c r="G115" t="n">
+        <v>848507</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>110</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>40-8-[5, 6]-7</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>sga_nsc</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>60</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>12600</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1096328</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
         <v>1</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>6-3-[2]-5</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>sga</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>sga_binomial</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>0.000</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
         <v>270</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G117" t="n">
         <v>2580</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>7-3-[2, 3]-3</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>sga_binomial</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>252</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
